--- a/medicine/Psychotrope/Jacquère/Jacquère.xlsx
+++ b/medicine/Psychotrope/Jacquère/Jacquère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacqu%C3%A8re</t>
+          <t>Jacquère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La jacquère est un cépage blanc tardif. En France, il est le plus répandu en Savoie et est utilisé plus marginalement dans le Bugey et dans le Dauphiné. Il donne un vin frais et léger, à boire jeune. C'est le cépage traditionnel et quasi exclusif de l'apremont de Savoie.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacqu%C3%A8re</t>
+          <t>Jacquère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage est aussi dénommé Altesse de Saint-Chef, Blanc des Ecoutoux, Buisserate, Cherché, Coufe Chien (à Roussillon), Cugnète, Cugnette, Cugniette, Jacquère blanche, Jacquerre, Jacquière, Martin cot, Martin cot blanc, Molette, Molette de Montmelian, Plant de Myans, Plant des Abymes, Redin, Robinet (à Conflans), Rossette, Rossettin, Roussette et Roussette de Montmelian.
  Portail de la vigne et du vin   Portail de la Savoie   Portail du Bugey                   </t>
